--- a/artfynd/A 61248-2025 artfynd.xlsx
+++ b/artfynd/A 61248-2025 artfynd.xlsx
@@ -4717,7 +4717,7 @@
         <v>130795562</v>
       </c>
       <c r="B38" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>130800368</v>
       </c>
       <c r="B39" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>130800353</v>
       </c>
       <c r="B40" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>130800376</v>
       </c>
       <c r="B41" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>130800366</v>
       </c>
       <c r="B42" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>130795187</v>
       </c>
       <c r="B43" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>130800374</v>
       </c>
       <c r="B44" t="n">
-        <v>83202</v>
+        <v>83206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>130800370</v>
       </c>
       <c r="B45" t="n">
-        <v>75217</v>
+        <v>75221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>130800372</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>130795383</v>
       </c>
       <c r="B47" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>130795639</v>
       </c>
       <c r="B48" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>130800378</v>
       </c>
       <c r="B49" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>130800355</v>
       </c>
       <c r="B50" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>130800369</v>
       </c>
       <c r="B51" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>130800359</v>
       </c>
       <c r="B52" t="n">
-        <v>75217</v>
+        <v>75221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>130800367</v>
       </c>
       <c r="B53" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>130800352</v>
       </c>
       <c r="B54" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>130800375</v>
       </c>
       <c r="B55" t="n">
-        <v>83210</v>
+        <v>83214</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>130800361</v>
       </c>
       <c r="B56" t="n">
-        <v>75329</v>
+        <v>75333</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7171,32 +7171,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130800364</v>
+        <v>130800354</v>
       </c>
       <c r="B57" t="n">
-        <v>80380</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>444717</v>
+        <v>444716</v>
       </c>
       <c r="R57" t="n">
-        <v>7025526</v>
+        <v>7025439</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7251,12 +7251,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7270,17 +7270,17 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7298,32 +7298,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130800354</v>
+        <v>130800364</v>
       </c>
       <c r="B58" t="n">
-        <v>79239</v>
+        <v>80384</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7333,10 +7333,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>444716</v>
+        <v>444717</v>
       </c>
       <c r="R58" t="n">
-        <v>7025439</v>
+        <v>7025526</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7378,12 +7378,12 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7397,17 +7397,17 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7428,7 +7428,7 @@
         <v>130800351</v>
       </c>
       <c r="B59" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7561,10 +7561,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130800356</v>
+        <v>130800371</v>
       </c>
       <c r="B60" t="n">
-        <v>80345</v>
+        <v>78255</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7572,21 +7572,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2081</v>
+        <v>228579</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>444731</v>
+        <v>444684</v>
       </c>
       <c r="R60" t="n">
-        <v>7025516</v>
+        <v>7025581</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7641,12 +7641,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På bark av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7660,17 +7660,17 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130800371</v>
+        <v>130800356</v>
       </c>
       <c r="B61" t="n">
-        <v>78251</v>
+        <v>80349</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7699,21 +7699,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>228579</v>
+        <v>2081</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>444684</v>
+        <v>444731</v>
       </c>
       <c r="R61" t="n">
-        <v>7025581</v>
+        <v>7025516</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På bark av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -7818,7 +7818,7 @@
         <v>130812174</v>
       </c>
       <c r="B62" t="n">
-        <v>83214</v>
+        <v>83218</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>130800358</v>
       </c>
       <c r="B63" t="n">
-        <v>85145</v>
+        <v>85149</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>

--- a/artfynd/A 61248-2025 artfynd.xlsx
+++ b/artfynd/A 61248-2025 artfynd.xlsx
@@ -5743,10 +5743,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130800372</v>
+        <v>130795383</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5754,34 +5754,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Litnersmyran, Jmt</t>
+          <t>Litnersmyren, Litnersmyren, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>444688</v>
+        <v>444726</v>
       </c>
       <c r="R46" t="n">
-        <v>7025582</v>
+        <v>7025453</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>På gammal klen sälg i gammal barrblandskog</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5842,17 +5842,17 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5870,10 +5870,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130795383</v>
+        <v>130800372</v>
       </c>
       <c r="B47" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5881,34 +5881,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Litnersmyren, Litnersmyren, Jmt</t>
+          <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>444726</v>
+        <v>444688</v>
       </c>
       <c r="R47" t="n">
-        <v>7025453</v>
+        <v>7025582</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>På gammal klen sälg i gammal barrblandskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5969,17 +5969,17 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6260,32 +6260,32 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130800355</v>
+        <v>130800359</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6295,10 +6295,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>444716</v>
+        <v>444731</v>
       </c>
       <c r="R50" t="n">
-        <v>7025474</v>
+        <v>7025516</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6340,12 +6340,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>På gammal tall med pansarbark, längsta bål 40 cm, i gammal granskog</t>
+          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6359,17 +6359,17 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130800369</v>
+        <v>130800355</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -6415,26 +6415,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>444704</v>
+        <v>444716</v>
       </c>
       <c r="R51" t="n">
-        <v>7025567</v>
+        <v>7025474</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6466,7 +6457,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6476,12 +6467,12 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>80 bålar på gammal levande tall (ca 200 år, 23 cm dbh) i gles gammal barrblandskog, längsta bål 40 cm</t>
+          <t>På gammal tall med pansarbark, längsta bål 40 cm, i gammal granskog</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6523,45 +6514,54 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130800359</v>
+        <v>130800369</v>
       </c>
       <c r="B52" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Leight.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>444731</v>
+        <v>444704</v>
       </c>
       <c r="R52" t="n">
-        <v>7025516</v>
+        <v>7025567</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>80 bålar på gammal levande tall (ca 200 år, 23 cm dbh) i gles gammal barrblandskog, längsta bål 40 cm</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6622,17 +6622,17 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7171,32 +7171,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130800354</v>
+        <v>130800364</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>80384</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>444716</v>
+        <v>444717</v>
       </c>
       <c r="R57" t="n">
-        <v>7025439</v>
+        <v>7025526</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7251,12 +7251,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7270,17 +7270,17 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7298,32 +7298,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130800364</v>
+        <v>130800354</v>
       </c>
       <c r="B58" t="n">
-        <v>80384</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7333,10 +7333,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>444717</v>
+        <v>444716</v>
       </c>
       <c r="R58" t="n">
-        <v>7025526</v>
+        <v>7025439</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7378,12 +7378,12 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7397,17 +7397,17 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>

--- a/artfynd/A 61248-2025 artfynd.xlsx
+++ b/artfynd/A 61248-2025 artfynd.xlsx
@@ -6260,32 +6260,32 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130800359</v>
+        <v>130800355</v>
       </c>
       <c r="B50" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6295,10 +6295,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>444731</v>
+        <v>444716</v>
       </c>
       <c r="R50" t="n">
-        <v>7025516</v>
+        <v>7025474</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6340,12 +6340,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>På gammal tall med pansarbark, längsta bål 40 cm, i gammal granskog</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6359,17 +6359,17 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6387,32 +6387,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130800355</v>
+        <v>130800359</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6422,10 +6422,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>444716</v>
+        <v>444731</v>
       </c>
       <c r="R51" t="n">
-        <v>7025474</v>
+        <v>7025516</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6467,12 +6467,12 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>På gammal tall med pansarbark, längsta bål 40 cm, i gammal granskog</t>
+          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6486,17 +6486,17 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>

--- a/artfynd/A 61248-2025 artfynd.xlsx
+++ b/artfynd/A 61248-2025 artfynd.xlsx
@@ -6387,45 +6387,54 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130800359</v>
+        <v>130800369</v>
       </c>
       <c r="B51" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Leight.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>444731</v>
+        <v>444704</v>
       </c>
       <c r="R51" t="n">
-        <v>7025516</v>
+        <v>7025567</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6457,7 +6466,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6467,12 +6476,12 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>80 bålar på gammal levande tall (ca 200 år, 23 cm dbh) i gles gammal barrblandskog, längsta bål 40 cm</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6486,17 +6495,17 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6514,54 +6523,45 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130800369</v>
+        <v>130800359</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>Leight.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>444704</v>
+        <v>444731</v>
       </c>
       <c r="R52" t="n">
-        <v>7025567</v>
+        <v>7025516</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>80 bålar på gammal levande tall (ca 200 år, 23 cm dbh) i gles gammal barrblandskog, längsta bål 40 cm</t>
+          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6622,17 +6622,17 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -6786,48 +6786,45 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130800352</v>
+        <v>130800375</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>83214</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>492</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>444700</v>
+        <v>444662</v>
       </c>
       <c r="R54" t="n">
-        <v>7025517</v>
+        <v>7025556</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6859,7 +6856,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6869,12 +6866,12 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran i gammal granskog</t>
+          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6883,23 +6880,22 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -6917,45 +6913,48 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130800375</v>
+        <v>130800352</v>
       </c>
       <c r="B55" t="n">
-        <v>83214</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>492</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>444662</v>
+        <v>444700</v>
       </c>
       <c r="R55" t="n">
-        <v>7025556</v>
+        <v>7025517</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6987,7 +6986,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6997,12 +6996,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
+          <t>Rikligt på gammal levande gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7011,22 +7010,23 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>glasbjörk</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7044,32 +7044,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130800361</v>
+        <v>130800364</v>
       </c>
       <c r="B56" t="n">
-        <v>75333</v>
+        <v>80384</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1460</v>
+        <v>6464</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rosa skärelav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Schismatomma pericleum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Branth &amp; Rostr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7079,10 +7079,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>444731</v>
+        <v>444717</v>
       </c>
       <c r="R56" t="n">
-        <v>7025516</v>
+        <v>7025526</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7171,32 +7171,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130800364</v>
+        <v>130800354</v>
       </c>
       <c r="B57" t="n">
-        <v>80384</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>444717</v>
+        <v>444716</v>
       </c>
       <c r="R57" t="n">
-        <v>7025526</v>
+        <v>7025439</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7251,12 +7251,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7270,17 +7270,17 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7298,10 +7298,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130800354</v>
+        <v>130800361</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>75333</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7309,21 +7309,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>1460</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosa skärelav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Schismatomma pericleum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Branth &amp; Rostr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7333,10 +7333,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>444716</v>
+        <v>444731</v>
       </c>
       <c r="R58" t="n">
-        <v>7025439</v>
+        <v>7025516</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7378,12 +7378,12 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7397,17 +7397,17 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>

--- a/artfynd/A 61248-2025 artfynd.xlsx
+++ b/artfynd/A 61248-2025 artfynd.xlsx
@@ -5353,57 +5353,48 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130795187</v>
+        <v>130800374</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>83206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Litnersmyren, Litnersmyren, Jmt</t>
+          <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>444732</v>
+        <v>444662</v>
       </c>
       <c r="R43" t="n">
-        <v>7025497</v>
+        <v>7025556</v>
       </c>
       <c r="S43" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5432,7 +5423,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5442,12 +5433,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>På gammal tall i gammal granskog</t>
+          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5461,17 +5452,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5489,48 +5480,57 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130800374</v>
+        <v>130795187</v>
       </c>
       <c r="B44" t="n">
-        <v>83206</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Litnersmyran, Jmt</t>
+          <t>Litnersmyren, Litnersmyren, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>444662</v>
+        <v>444732</v>
       </c>
       <c r="R44" t="n">
-        <v>7025556</v>
+        <v>7025497</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
+          <t>På gammal tall i gammal granskog</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5588,17 +5588,17 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>glasbjörk</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6786,45 +6786,48 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130800375</v>
+        <v>130800352</v>
       </c>
       <c r="B54" t="n">
-        <v>83214</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>492</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>444662</v>
+        <v>444700</v>
       </c>
       <c r="R54" t="n">
-        <v>7025556</v>
+        <v>7025517</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6856,7 +6859,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6866,12 +6869,12 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
+          <t>Rikligt på gammal levande gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6880,22 +6883,23 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>glasbjörk</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -6913,48 +6917,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130800352</v>
+        <v>130800375</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>83214</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>492</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>444700</v>
+        <v>444662</v>
       </c>
       <c r="R55" t="n">
-        <v>7025517</v>
+        <v>7025556</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6986,7 +6987,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6996,12 +6997,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran i gammal granskog</t>
+          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7010,23 +7011,22 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7044,32 +7044,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130800364</v>
+        <v>130800354</v>
       </c>
       <c r="B56" t="n">
-        <v>80384</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7079,10 +7079,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>444717</v>
+        <v>444716</v>
       </c>
       <c r="R56" t="n">
-        <v>7025526</v>
+        <v>7025439</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7143,17 +7143,17 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7171,10 +7171,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130800354</v>
+        <v>130800361</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>75333</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7182,21 +7182,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>1460</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosa skärelav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Schismatomma pericleum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Branth &amp; Rostr.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>444716</v>
+        <v>444731</v>
       </c>
       <c r="R57" t="n">
-        <v>7025439</v>
+        <v>7025516</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7251,12 +7251,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7270,17 +7270,17 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7298,32 +7298,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130800361</v>
+        <v>130800364</v>
       </c>
       <c r="B58" t="n">
-        <v>75333</v>
+        <v>80384</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1460</v>
+        <v>6464</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rosa skärelav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Schismatomma pericleum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Branth &amp; Rostr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7333,10 +7333,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>444731</v>
+        <v>444717</v>
       </c>
       <c r="R58" t="n">
-        <v>7025516</v>
+        <v>7025526</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7378,12 +7378,12 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7561,10 +7561,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130800371</v>
+        <v>130800356</v>
       </c>
       <c r="B60" t="n">
-        <v>78255</v>
+        <v>80349</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7572,21 +7572,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>228579</v>
+        <v>2081</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>444684</v>
+        <v>444731</v>
       </c>
       <c r="R60" t="n">
-        <v>7025581</v>
+        <v>7025516</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7641,12 +7641,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På bark av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7660,17 +7660,17 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130800356</v>
+        <v>130800371</v>
       </c>
       <c r="B61" t="n">
-        <v>80349</v>
+        <v>78255</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7699,21 +7699,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2081</v>
+        <v>228579</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>444731</v>
+        <v>444684</v>
       </c>
       <c r="R61" t="n">
-        <v>7025516</v>
+        <v>7025581</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På bark av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>

--- a/artfynd/A 61248-2025 artfynd.xlsx
+++ b/artfynd/A 61248-2025 artfynd.xlsx
@@ -5353,48 +5353,57 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130800374</v>
+        <v>130795187</v>
       </c>
       <c r="B43" t="n">
-        <v>83206</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Litnersmyran, Jmt</t>
+          <t>Litnersmyren, Litnersmyren, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>444662</v>
+        <v>444732</v>
       </c>
       <c r="R43" t="n">
-        <v>7025556</v>
+        <v>7025497</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5423,7 +5432,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5433,12 +5442,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
+          <t>På gammal tall i gammal granskog</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5452,17 +5461,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>glasbjörk</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5480,57 +5489,48 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130795187</v>
+        <v>130800374</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>83206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Litnersmyren, Litnersmyren, Jmt</t>
+          <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>444732</v>
+        <v>444662</v>
       </c>
       <c r="R44" t="n">
-        <v>7025497</v>
+        <v>7025556</v>
       </c>
       <c r="S44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>På gammal tall i gammal granskog</t>
+          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5588,17 +5588,17 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130795383</v>
+        <v>130800372</v>
       </c>
       <c r="B46" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5754,34 +5754,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Litnersmyren, Litnersmyren, Jmt</t>
+          <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>444726</v>
+        <v>444688</v>
       </c>
       <c r="R46" t="n">
-        <v>7025453</v>
+        <v>7025582</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>På gammal klen sälg i gammal barrblandskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5842,17 +5842,17 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5870,10 +5870,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130800372</v>
+        <v>130795383</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5881,34 +5881,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Litnersmyran, Jmt</t>
+          <t>Litnersmyren, Litnersmyren, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>444688</v>
+        <v>444726</v>
       </c>
       <c r="R47" t="n">
-        <v>7025582</v>
+        <v>7025453</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>På gammal klen sälg i gammal barrblandskog</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5969,17 +5969,17 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6786,48 +6786,45 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130800352</v>
+        <v>130800375</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>83214</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>492</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>444700</v>
+        <v>444662</v>
       </c>
       <c r="R54" t="n">
-        <v>7025517</v>
+        <v>7025556</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6859,7 +6856,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6869,12 +6866,12 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran i gammal granskog</t>
+          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6883,23 +6880,22 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -6917,45 +6913,48 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130800375</v>
+        <v>130800352</v>
       </c>
       <c r="B55" t="n">
-        <v>83214</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>492</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>444662</v>
+        <v>444700</v>
       </c>
       <c r="R55" t="n">
-        <v>7025556</v>
+        <v>7025517</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6987,7 +6986,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6997,12 +6996,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
+          <t>Rikligt på gammal levande gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7011,22 +7010,23 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>glasbjörk</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7044,10 +7044,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130800354</v>
+        <v>130800361</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>75333</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7055,21 +7055,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>1460</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosa skärelav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Schismatomma pericleum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Branth &amp; Rostr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7079,10 +7079,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>444716</v>
+        <v>444731</v>
       </c>
       <c r="R56" t="n">
-        <v>7025439</v>
+        <v>7025516</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7143,17 +7143,17 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7171,32 +7171,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130800361</v>
+        <v>130800364</v>
       </c>
       <c r="B57" t="n">
-        <v>75333</v>
+        <v>80384</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1460</v>
+        <v>6464</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rosa skärelav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Schismatomma pericleum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Branth &amp; Rostr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>444731</v>
+        <v>444717</v>
       </c>
       <c r="R57" t="n">
-        <v>7025516</v>
+        <v>7025526</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7251,12 +7251,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7298,32 +7298,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130800364</v>
+        <v>130800354</v>
       </c>
       <c r="B58" t="n">
-        <v>80384</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7333,10 +7333,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>444717</v>
+        <v>444716</v>
       </c>
       <c r="R58" t="n">
-        <v>7025526</v>
+        <v>7025439</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7378,12 +7378,12 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7397,17 +7397,17 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7561,10 +7561,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130800356</v>
+        <v>130800371</v>
       </c>
       <c r="B60" t="n">
-        <v>80349</v>
+        <v>78255</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7572,21 +7572,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2081</v>
+        <v>228579</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>444731</v>
+        <v>444684</v>
       </c>
       <c r="R60" t="n">
-        <v>7025516</v>
+        <v>7025581</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7641,12 +7641,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På bark av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7660,17 +7660,17 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130800371</v>
+        <v>130800356</v>
       </c>
       <c r="B61" t="n">
-        <v>78255</v>
+        <v>80349</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7699,21 +7699,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>228579</v>
+        <v>2081</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>444684</v>
+        <v>444731</v>
       </c>
       <c r="R61" t="n">
-        <v>7025581</v>
+        <v>7025516</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På bark av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>

--- a/artfynd/A 61248-2025 artfynd.xlsx
+++ b/artfynd/A 61248-2025 artfynd.xlsx
@@ -5743,10 +5743,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130800372</v>
+        <v>130795383</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5754,34 +5754,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Litnersmyran, Jmt</t>
+          <t>Litnersmyren, Litnersmyren, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>444688</v>
+        <v>444726</v>
       </c>
       <c r="R46" t="n">
-        <v>7025582</v>
+        <v>7025453</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>På gammal klen sälg i gammal barrblandskog</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5842,17 +5842,17 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5870,10 +5870,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130795383</v>
+        <v>130800372</v>
       </c>
       <c r="B47" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5881,34 +5881,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Litnersmyren, Litnersmyren, Jmt</t>
+          <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>444726</v>
+        <v>444688</v>
       </c>
       <c r="R47" t="n">
-        <v>7025453</v>
+        <v>7025582</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>På gammal klen sälg i gammal barrblandskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5969,17 +5969,17 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6786,45 +6786,48 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130800375</v>
+        <v>130800352</v>
       </c>
       <c r="B54" t="n">
-        <v>83214</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>492</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>444662</v>
+        <v>444700</v>
       </c>
       <c r="R54" t="n">
-        <v>7025556</v>
+        <v>7025517</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6856,7 +6859,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6866,12 +6869,12 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
+          <t>Rikligt på gammal levande gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6880,22 +6883,23 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>glasbjörk</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -6913,48 +6917,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130800352</v>
+        <v>130800375</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>83214</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>492</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>444700</v>
+        <v>444662</v>
       </c>
       <c r="R55" t="n">
-        <v>7025517</v>
+        <v>7025556</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6986,7 +6987,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6996,12 +6997,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Rikligt på gammal levande gran i gammal granskog</t>
+          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7010,23 +7011,22 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7044,32 +7044,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130800361</v>
+        <v>130800364</v>
       </c>
       <c r="B56" t="n">
-        <v>75333</v>
+        <v>80384</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1460</v>
+        <v>6464</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rosa skärelav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Schismatomma pericleum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Branth &amp; Rostr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7079,10 +7079,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>444731</v>
+        <v>444717</v>
       </c>
       <c r="R56" t="n">
-        <v>7025516</v>
+        <v>7025526</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7171,32 +7171,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130800364</v>
+        <v>130800354</v>
       </c>
       <c r="B57" t="n">
-        <v>80384</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>444717</v>
+        <v>444716</v>
       </c>
       <c r="R57" t="n">
-        <v>7025526</v>
+        <v>7025439</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7251,12 +7251,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>På bark på stam av levande lutande gammal sälg i gammal granskog</t>
+          <t>På gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7270,17 +7270,17 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7298,10 +7298,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130800354</v>
+        <v>130800361</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>75333</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7309,21 +7309,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>1460</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosa skärelav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Schismatomma pericleum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Branth &amp; Rostr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7333,10 +7333,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>444716</v>
+        <v>444731</v>
       </c>
       <c r="R58" t="n">
-        <v>7025439</v>
+        <v>7025516</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7378,12 +7378,12 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>På gammal gran i gammal granskog</t>
+          <t>Vid basen av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7397,17 +7397,17 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7561,10 +7561,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130800371</v>
+        <v>130800356</v>
       </c>
       <c r="B60" t="n">
-        <v>78255</v>
+        <v>80349</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7572,21 +7572,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>228579</v>
+        <v>2081</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>444684</v>
+        <v>444731</v>
       </c>
       <c r="R60" t="n">
-        <v>7025581</v>
+        <v>7025516</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7641,12 +7641,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På bark av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7660,17 +7660,17 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130800356</v>
+        <v>130800371</v>
       </c>
       <c r="B61" t="n">
-        <v>80349</v>
+        <v>78255</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7699,21 +7699,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2081</v>
+        <v>228579</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>444731</v>
+        <v>444684</v>
       </c>
       <c r="R61" t="n">
-        <v>7025516</v>
+        <v>7025581</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På bark av grov gammal levande sälg (50 cm dbh) i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>

--- a/artfynd/A 61248-2025 artfynd.xlsx
+++ b/artfynd/A 61248-2025 artfynd.xlsx
@@ -5353,57 +5353,48 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130795187</v>
+        <v>130800374</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>83206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Litnersmyren, Litnersmyren, Jmt</t>
+          <t>Litnersmyran, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>444732</v>
+        <v>444662</v>
       </c>
       <c r="R43" t="n">
-        <v>7025497</v>
+        <v>7025556</v>
       </c>
       <c r="S43" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5432,7 +5423,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5442,12 +5433,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>På gammal tall i gammal granskog</t>
+          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5461,17 +5452,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5489,48 +5480,57 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130800374</v>
+        <v>130795187</v>
       </c>
       <c r="B44" t="n">
-        <v>83206</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Litnersmyran, Jmt</t>
+          <t>Litnersmyren, Litnersmyren, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>444662</v>
+        <v>444732</v>
       </c>
       <c r="R44" t="n">
-        <v>7025556</v>
+        <v>7025497</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Vid basen av grov björkhögstubbe (30 cm dbh) i gammal granskog med inslag av tallöverståndare</t>
+          <t>På gammal tall i gammal granskog</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5588,17 +5588,17 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>glasbjörk</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>

--- a/artfynd/A 61248-2025 artfynd.xlsx
+++ b/artfynd/A 61248-2025 artfynd.xlsx
@@ -7818,7 +7818,7 @@
         <v>130812174</v>
       </c>
       <c r="B62" t="n">
-        <v>83218</v>
+        <v>83219</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>130800358</v>
       </c>
       <c r="B63" t="n">
-        <v>85149</v>
+        <v>85150</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
